--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a3_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a3_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6379310344827587</v>
+        <v>0.59375</v>
       </c>
       <c r="C3">
-        <v>0.5031446540880503</v>
+        <v>0.4978902953586498</v>
       </c>
       <c r="D3">
-        <v>0.5491525423728814</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="E3">
-        <v>0.493801652892562</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="F3">
-        <v>0.5794701986754967</v>
+        <v>0.5830618892508144</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.5010266940451745</v>
       </c>
       <c r="H3">
-        <v>0.504</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6736842105263158</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="C4">
-        <v>0.4907597535934292</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="D4">
-        <v>0.5865384615384616</v>
+        <v>0.6502463054187192</v>
       </c>
       <c r="E4">
-        <v>0.4724770642201835</v>
+        <v>0.4521604938271605</v>
       </c>
       <c r="F4">
-        <v>0.6994818652849741</v>
+        <v>0.6448598130841121</v>
       </c>
       <c r="G4">
-        <v>0.4613050075872534</v>
+        <v>0.4594180704441042</v>
       </c>
       <c r="H4">
-        <v>0.496</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6637931034482759</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="C5">
-        <v>0.4624505928853755</v>
+        <v>0.4690082644628099</v>
       </c>
       <c r="D5">
-        <v>0.567741935483871</v>
+        <v>0.6807228915662651</v>
       </c>
       <c r="E5">
-        <v>0.4792243767313019</v>
+        <v>0.4502762430939227</v>
       </c>
       <c r="F5">
-        <v>0.689873417721519</v>
+        <v>0.6407185628742516</v>
       </c>
       <c r="G5">
-        <v>0.4585561497326203</v>
+        <v>0.4593103448275862</v>
       </c>
       <c r="H5">
-        <v>0.476</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6357142857142857</v>
+        <v>0.6906474820143885</v>
       </c>
       <c r="C6">
-        <v>0.4588014981273408</v>
+        <v>0.4680451127819549</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="E6">
-        <v>0.4875816993464052</v>
+        <v>0.4577836411609499</v>
       </c>
       <c r="F6">
-        <v>0.6260162601626016</v>
+        <v>0.7103448275862069</v>
       </c>
       <c r="G6">
-        <v>0.4747736093143596</v>
+        <v>0.468668407310705</v>
       </c>
       <c r="H6">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6569767441860465</v>
+        <v>0.66</v>
       </c>
       <c r="C7">
-        <v>0.4635879218472469</v>
+        <v>0.4619469026548673</v>
       </c>
       <c r="D7">
-        <v>0.5748031496062992</v>
+        <v>0.664179104477612</v>
       </c>
       <c r="E7">
-        <v>0.4866581956797967</v>
+        <v>0.4568062827225131</v>
       </c>
       <c r="F7">
-        <v>0.5909090909090909</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="G7">
-        <v>0.4831880448318804</v>
+        <v>0.4677002583979328</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6961325966850829</v>
+        <v>0.673202614379085</v>
       </c>
       <c r="C8">
-        <v>0.4526315789473684</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="D8">
-        <v>0.5692307692307692</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="E8">
-        <v>0.496757457846952</v>
+        <v>0.4562091503267974</v>
       </c>
       <c r="F8">
-        <v>0.5454545454545454</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="G8">
-        <v>0.4830188679245283</v>
+        <v>0.4704370179948586</v>
       </c>
       <c r="H8">
-        <v>0.472</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6825396825396826</v>
+        <v>0.68125</v>
       </c>
       <c r="C9">
-        <v>0.4466338259441708</v>
+        <v>0.4702194357366771</v>
       </c>
       <c r="D9">
-        <v>0.6015037593984962</v>
+        <v>0.5703125</v>
       </c>
       <c r="E9">
-        <v>0.4934383202099737</v>
+        <v>0.4575596816976127</v>
       </c>
       <c r="F9">
-        <v>0.5964912280701754</v>
+        <v>0.7266187050359713</v>
       </c>
       <c r="G9">
-        <v>0.4873737373737373</v>
+        <v>0.4620418848167539</v>
       </c>
       <c r="H9">
-        <v>0.462</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6701570680628273</v>
+        <v>0.7012195121951219</v>
       </c>
       <c r="C10">
-        <v>0.4468085106382979</v>
+        <v>0.4761215629522431</v>
       </c>
       <c r="D10">
-        <v>0.6030534351145038</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="E10">
-        <v>0.4910714285714285</v>
+        <v>0.4624352331606217</v>
       </c>
       <c r="F10">
-        <v>0.6071428571428571</v>
+        <v>0.6602564102564102</v>
       </c>
       <c r="G10">
-        <v>0.4758364312267658</v>
+        <v>0.4596354166666667</v>
       </c>
       <c r="H10">
-        <v>0.468</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6649484536082474</v>
+        <v>0.725609756097561</v>
       </c>
       <c r="C11">
-        <v>0.4545454545454545</v>
+        <v>0.4781420765027322</v>
       </c>
       <c r="D11">
-        <v>0.648</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="E11">
-        <v>0.4872448979591837</v>
+        <v>0.4460526315789474</v>
       </c>
       <c r="F11">
-        <v>0.5353535353535354</v>
+        <v>0.6287878787878788</v>
       </c>
       <c r="G11">
-        <v>0.4746600741656366</v>
+        <v>0.4643799472295514</v>
       </c>
       <c r="H11">
-        <v>0.466</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6524064171122995</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="C12">
-        <v>0.4538152610441767</v>
+        <v>0.479328165374677</v>
       </c>
       <c r="D12">
-        <v>0.608</v>
+        <v>0.5669291338582677</v>
       </c>
       <c r="E12">
-        <v>0.4929032258064516</v>
+        <v>0.4415243101182654</v>
       </c>
       <c r="F12">
-        <v>0.5480769230769231</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="G12">
-        <v>0.472636815920398</v>
+        <v>0.4773022049286641</v>
       </c>
       <c r="H12">
-        <v>0.48</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7272727272727273</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C13">
-        <v>0.4622057001239158</v>
+        <v>0.4815270935960591</v>
       </c>
       <c r="D13">
-        <v>0.6307692307692307</v>
+        <v>0.5190839694656488</v>
       </c>
       <c r="E13">
-        <v>0.4891165172855313</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="F13">
-        <v>0.4918032786885246</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>0.4689054726368159</v>
+        <v>0.469620253164557</v>
       </c>
       <c r="H13">
-        <v>0.478</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7017543859649122</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="C14">
-        <v>0.4530011325028312</v>
+        <v>0.4829210836277974</v>
       </c>
       <c r="D14">
-        <v>0.5833333333333334</v>
+        <v>0.5877192982456141</v>
       </c>
       <c r="E14">
-        <v>0.4904701397712833</v>
+        <v>0.4457364341085271</v>
       </c>
       <c r="F14">
-        <v>0.5645161290322581</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="G14">
-        <v>0.465495608531995</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H14">
-        <v>0.482</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,22 +764,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7197452229299363</v>
+        <v>0.7125748502994012</v>
       </c>
       <c r="C15">
-        <v>0.4566160520607375</v>
+        <v>0.4793478260869565</v>
       </c>
       <c r="D15">
-        <v>0.5954198473282443</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="E15">
-        <v>0.489060489060489</v>
+        <v>0.4452926208651399</v>
       </c>
       <c r="F15">
-        <v>0.5765765765765766</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="G15">
-        <v>0.4626108998732573</v>
+        <v>0.4865211810012837</v>
       </c>
       <c r="H15">
         <v>0.488</v>
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7142857142857143</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="C16">
-        <v>0.4586312563840654</v>
+        <v>0.4823284823284824</v>
       </c>
       <c r="D16">
-        <v>0.5985401459854015</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="E16">
-        <v>0.4896373056994819</v>
+        <v>0.4463130659767141</v>
       </c>
       <c r="F16">
-        <v>0.609375</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="G16">
-        <v>0.4585427135678392</v>
+        <v>0.482535575679172</v>
       </c>
       <c r="H16">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7032258064516129</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17">
-        <v>0.4574780058651026</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="D17">
-        <v>0.5864661654135338</v>
+        <v>0.5826771653543307</v>
       </c>
       <c r="E17">
-        <v>0.484375</v>
+        <v>0.443312101910828</v>
       </c>
       <c r="F17">
-        <v>0.5853658536585366</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G17">
-        <v>0.4603580562659846</v>
+        <v>0.4884318766066838</v>
       </c>
       <c r="H17">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7295597484276729</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="C18">
-        <v>0.4607571560480148</v>
+        <v>0.4812734082397004</v>
       </c>
       <c r="D18">
-        <v>0.6279069767441861</v>
+        <v>0.624</v>
       </c>
       <c r="E18">
-        <v>0.4884318766066838</v>
+        <v>0.4510800508259212</v>
       </c>
       <c r="F18">
-        <v>0.6335877862595419</v>
+        <v>0.6</v>
       </c>
       <c r="G18">
-        <v>0.4645569620253164</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="H18">
-        <v>0.474</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7317073170731707</v>
+        <v>0.7135416666666666</v>
       </c>
       <c r="C19">
-        <v>0.4575221238938053</v>
+        <v>0.4830741079597438</v>
       </c>
       <c r="D19">
-        <v>0.6147540983606558</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="E19">
-        <v>0.489769820971867</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="F19">
-        <v>0.639344262295082</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G19">
-        <v>0.4565217391304348</v>
+        <v>0.4805031446540881</v>
       </c>
       <c r="H19">
-        <v>0.486</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7032258064516129</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="C20">
-        <v>0.4539249146757679</v>
+        <v>0.4743362831858407</v>
       </c>
       <c r="D20">
-        <v>0.6183206106870229</v>
+        <v>0.552</v>
       </c>
       <c r="E20">
-        <v>0.4967989756722151</v>
+        <v>0.4506493506493506</v>
       </c>
       <c r="F20">
-        <v>0.5634920634920635</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="G20">
-        <v>0.4498094027954257</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H20">
-        <v>0.496</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7159090909090909</v>
+        <v>0.7028571428571428</v>
       </c>
       <c r="C21">
-        <v>0.4604081632653061</v>
+        <v>0.4756302521008403</v>
       </c>
       <c r="D21">
-        <v>0.6220472440944882</v>
+        <v>0.6357142857142857</v>
       </c>
       <c r="E21">
-        <v>0.4967490247074122</v>
+        <v>0.4662420382165605</v>
       </c>
       <c r="F21">
-        <v>0.5619834710743802</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="G21">
-        <v>0.4548969072164948</v>
+        <v>0.470959595959596</v>
       </c>
       <c r="H21">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7109826589595376</v>
+        <v>0.7071823204419889</v>
       </c>
       <c r="C22">
-        <v>0.4589641434262948</v>
+        <v>0.4807843137254902</v>
       </c>
       <c r="D22">
-        <v>0.609375</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="E22">
-        <v>0.5038659793814433</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="F22">
-        <v>0.5454545454545454</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="G22">
-        <v>0.4510800508259212</v>
+        <v>0.4573547589616811</v>
       </c>
       <c r="H22">
-        <v>0.496</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7202380952380952</v>
+        <v>0.7071823204419889</v>
       </c>
       <c r="C23">
-        <v>0.4612462006079027</v>
+        <v>0.4782939832444783</v>
       </c>
       <c r="D23">
-        <v>0.5555555555555556</v>
+        <v>0.6210526315789474</v>
       </c>
       <c r="E23">
-        <v>0.495575221238938</v>
+        <v>0.4724310776942356</v>
       </c>
       <c r="F23">
-        <v>0.5365853658536586</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="G23">
-        <v>0.4544319600499376</v>
+        <v>0.4612546125461255</v>
       </c>
       <c r="H23">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7183908045977011</v>
+        <v>0.6802325581395349</v>
       </c>
       <c r="C24">
-        <v>0.4630577907827359</v>
+        <v>0.4798239178283199</v>
       </c>
       <c r="D24">
-        <v>0.5603448275862069</v>
+        <v>0.65</v>
       </c>
       <c r="E24">
-        <v>0.5057618437900128</v>
+        <v>0.4784217016029593</v>
       </c>
       <c r="F24">
-        <v>0.6194690265486725</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="G24">
-        <v>0.4555694618272841</v>
+        <v>0.4565483476132191</v>
       </c>
       <c r="H24">
-        <v>0.484</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7103825136612022</v>
+        <v>0.7102272727272727</v>
       </c>
       <c r="C25">
-        <v>0.4628975265017668</v>
+        <v>0.4808781869688386</v>
       </c>
       <c r="D25">
-        <v>0.55</v>
+        <v>0.5700934579439252</v>
       </c>
       <c r="E25">
-        <v>0.5037688442211056</v>
+        <v>0.4727047146401985</v>
       </c>
       <c r="F25">
-        <v>0.5675675675675675</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G25">
-        <v>0.4569288389513109</v>
+        <v>0.4553459119496855</v>
       </c>
       <c r="H25">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6753926701570681</v>
+        <v>0.7197802197802198</v>
       </c>
       <c r="C26">
-        <v>0.4573960463531015</v>
+        <v>0.4768076398362892</v>
       </c>
       <c r="D26">
-        <v>0.576</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>0.476961394769614</v>
       </c>
       <c r="F26">
-        <v>0.6018518518518519</v>
+        <v>0.6239316239316239</v>
       </c>
       <c r="G26">
-        <v>0.4554334554334554</v>
+        <v>0.4451371571072319</v>
       </c>
       <c r="H26">
-        <v>0.478</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6756756756756757</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="C27">
-        <v>0.4635761589403973</v>
+        <v>0.4758117958913188</v>
       </c>
       <c r="D27">
-        <v>0.6448598130841121</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E27">
-        <v>0.49875</v>
+        <v>0.4669987546699875</v>
       </c>
       <c r="F27">
-        <v>0.6078431372549019</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4493284493284493</v>
+        <v>0.4358655043586551</v>
       </c>
       <c r="H27">
-        <v>0.472</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6914893617021277</v>
+        <v>0.6810810810810811</v>
       </c>
       <c r="C28">
-        <v>0.4656488549618321</v>
+        <v>0.4811501597444089</v>
       </c>
       <c r="D28">
-        <v>0.5966386554621849</v>
+        <v>0.552</v>
       </c>
       <c r="E28">
-        <v>0.4981504315659679</v>
+        <v>0.4708798017348203</v>
       </c>
       <c r="F28">
-        <v>0.5871559633027523</v>
+        <v>0.6576576576576577</v>
       </c>
       <c r="G28">
-        <v>0.4481074481074481</v>
+        <v>0.436183395291202</v>
       </c>
       <c r="H28">
-        <v>0.468</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,22 +1128,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7</v>
+        <v>0.6855670103092784</v>
       </c>
       <c r="C29">
-        <v>0.4664596273291925</v>
+        <v>0.484012539184953</v>
       </c>
       <c r="D29">
-        <v>0.5818181818181818</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="E29">
-        <v>0.4974683544303797</v>
+        <v>0.48</v>
       </c>
       <c r="F29">
-        <v>0.5849056603773585</v>
+        <v>0.64</v>
       </c>
       <c r="G29">
-        <v>0.4420921544209215</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H29">
         <v>0.478</v>
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6868131868131868</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="C30">
-        <v>0.4685816876122083</v>
+        <v>0.4847374847374847</v>
       </c>
       <c r="D30">
-        <v>0.5714285714285714</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="E30">
-        <v>0.4962216624685138</v>
+        <v>0.4802547770700637</v>
       </c>
       <c r="F30">
-        <v>0.5798319327731093</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="G30">
-        <v>0.4488778054862843</v>
+        <v>0.4470734744707348</v>
       </c>
       <c r="H30">
-        <v>0.468</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="C31">
-        <v>0.46952988972722</v>
+        <v>0.4885226603884638</v>
       </c>
       <c r="D31">
-        <v>0.5583333333333333</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="E31">
-        <v>0.4873737373737373</v>
+        <v>0.4734177215189874</v>
       </c>
       <c r="F31">
-        <v>0.6146788990825688</v>
+        <v>0.584070796460177</v>
       </c>
       <c r="G31">
-        <v>0.4519350811485643</v>
+        <v>0.4527363184079602</v>
       </c>
       <c r="H31">
-        <v>0.468</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7257142857142858</v>
+        <v>0.6839378238341969</v>
       </c>
       <c r="C32">
-        <v>0.4719416386083053</v>
+        <v>0.4858597285067873</v>
       </c>
       <c r="D32">
-        <v>0.5528455284552846</v>
+        <v>0.5398230088495575</v>
       </c>
       <c r="E32">
-        <v>0.487468671679198</v>
+        <v>0.4641089108910891</v>
       </c>
       <c r="F32">
-        <v>0.6228070175438597</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G32">
-        <v>0.4481481481481481</v>
+        <v>0.4563345633456334</v>
       </c>
       <c r="H32">
-        <v>0.47</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7005347593582888</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="C33">
-        <v>0.4710698689956332</v>
+        <v>0.4841930116472546</v>
       </c>
       <c r="D33">
-        <v>0.5412844036697247</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="E33">
-        <v>0.4930291508238276</v>
+        <v>0.4719800747198007</v>
       </c>
       <c r="F33">
-        <v>0.5982905982905983</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="G33">
-        <v>0.4475</v>
+        <v>0.4510532837670384</v>
       </c>
       <c r="H33">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6839080459770115</v>
+        <v>0.7055837563451777</v>
       </c>
       <c r="C34">
-        <v>0.4697375468666309</v>
+        <v>0.4806116876024031</v>
       </c>
       <c r="D34">
-        <v>0.5327868852459017</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="E34">
-        <v>0.4867924528301887</v>
+        <v>0.4596670934699104</v>
       </c>
       <c r="F34">
-        <v>0.5478260869565217</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="G34">
-        <v>0.4487989886219975</v>
+        <v>0.4568854568854569</v>
       </c>
       <c r="H34">
-        <v>0.464</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,22 +1284,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6758241758241759</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="C35">
-        <v>0.4734124935467217</v>
+        <v>0.4808714133900106</v>
       </c>
       <c r="D35">
-        <v>0.6218487394957983</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="E35">
-        <v>0.4898989898989899</v>
+        <v>0.461139896373057</v>
       </c>
       <c r="F35">
-        <v>0.5811965811965812</v>
+        <v>0.5244755244755245</v>
       </c>
       <c r="G35">
-        <v>0.4520547945205479</v>
+        <v>0.4578469520103761</v>
       </c>
       <c r="H35">
         <v>0.458</v>
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6914893617021277</v>
+        <v>0.703125</v>
       </c>
       <c r="C36">
-        <v>0.4740292486132123</v>
+        <v>0.4801648634724369</v>
       </c>
       <c r="D36">
-        <v>0.6218487394957983</v>
+        <v>0.6014492753623188</v>
       </c>
       <c r="E36">
-        <v>0.4732254047322541</v>
+        <v>0.4661458333333333</v>
       </c>
       <c r="F36">
-        <v>0.5909090909090909</v>
+        <v>0.4921875</v>
       </c>
       <c r="G36">
-        <v>0.4496894409937888</v>
+        <v>0.4690721649484536</v>
       </c>
       <c r="H36">
-        <v>0.46</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6455026455026455</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="C37">
-        <v>0.4738916256157635</v>
+        <v>0.4842421210605303</v>
       </c>
       <c r="D37">
-        <v>0.5882352941176471</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="E37">
-        <v>0.4697732997481108</v>
+        <v>0.4640102827763496</v>
       </c>
       <c r="F37">
-        <v>0.6578947368421053</v>
+        <v>0.55</v>
       </c>
       <c r="G37">
-        <v>0.4409937888198758</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="H37">
-        <v>0.468</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6443298969072165</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C38">
-        <v>0.4809086515224746</v>
+        <v>0.4871046228710462</v>
       </c>
       <c r="D38">
-        <v>0.59375</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="E38">
-        <v>0.4827586206896552</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="F38">
-        <v>0.6324786324786325</v>
+        <v>0.5700934579439252</v>
       </c>
       <c r="G38">
-        <v>0.4361567635903919</v>
+        <v>0.4542032622333751</v>
       </c>
       <c r="H38">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6510416666666666</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="C39">
-        <v>0.4824810606060606</v>
+        <v>0.4876660341555977</v>
       </c>
       <c r="D39">
-        <v>0.5149253731343284</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="E39">
-        <v>0.4787096774193548</v>
+        <v>0.465495608531995</v>
       </c>
       <c r="F39">
-        <v>0.5193798449612403</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="G39">
-        <v>0.4435994930291508</v>
+        <v>0.4488286066584464</v>
       </c>
       <c r="H39">
-        <v>0.468</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.654054054054054</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C40">
-        <v>0.4801110083256244</v>
+        <v>0.4875115633672525</v>
       </c>
       <c r="D40">
-        <v>0.4926470588235294</v>
+        <v>0.6074766355140186</v>
       </c>
       <c r="E40">
-        <v>0.4819587628865979</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="F40">
-        <v>0.5158730158730159</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="G40">
-        <v>0.4464285714285715</v>
+        <v>0.4394506866416979</v>
       </c>
       <c r="H40">
-        <v>0.466</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.656084656084656</v>
+        <v>0.6907216494845361</v>
       </c>
       <c r="C41">
-        <v>0.4772420009013069</v>
+        <v>0.4840764331210191</v>
       </c>
       <c r="D41">
-        <v>0.5661764705882353</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="E41">
-        <v>0.4785435630689207</v>
+        <v>0.4600997506234414</v>
       </c>
       <c r="F41">
-        <v>0.5739130434782609</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G41">
-        <v>0.4464285714285715</v>
+        <v>0.4399008674101611</v>
       </c>
       <c r="H41">
-        <v>0.454</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6705202312138728</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="C42">
-        <v>0.4761694616063548</v>
+        <v>0.4815144766146993</v>
       </c>
       <c r="D42">
-        <v>0.6444444444444445</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="E42">
-        <v>0.4708926261319534</v>
+        <v>0.45875</v>
       </c>
       <c r="F42">
-        <v>0.5405405405405406</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="G42">
-        <v>0.4339622641509434</v>
+        <v>0.4335839598997493</v>
       </c>
       <c r="H42">
-        <v>0.472</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,22 +1492,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6932515337423313</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C43">
-        <v>0.4775353016688061</v>
+        <v>0.4805363321799308</v>
       </c>
       <c r="D43">
-        <v>0.6742424242424242</v>
+        <v>0.64</v>
       </c>
       <c r="E43">
-        <v>0.4646074646074646</v>
+        <v>0.4624203821656051</v>
       </c>
       <c r="F43">
-        <v>0.5470085470085471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G43">
-        <v>0.4390547263681592</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="H43">
         <v>0.476</v>
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7037037037037037</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C44">
-        <v>0.478134110787172</v>
+        <v>0.4785380365490863</v>
       </c>
       <c r="D44">
-        <v>0.675</v>
+        <v>0.680327868852459</v>
       </c>
       <c r="E44">
-        <v>0.4681933842239186</v>
+        <v>0.4640605296343001</v>
       </c>
       <c r="F44">
-        <v>0.5663716814159292</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G44">
-        <v>0.4389027431421446</v>
+        <v>0.4369538077403246</v>
       </c>
       <c r="H44">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6470588235294118</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="C45">
-        <v>0.475396502643351</v>
+        <v>0.4779717373233583</v>
       </c>
       <c r="D45">
-        <v>0.6111111111111112</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E45">
-        <v>0.46375</v>
+        <v>0.4576485461441214</v>
       </c>
       <c r="F45">
-        <v>0.5428571428571428</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="G45">
-        <v>0.437731196054254</v>
+        <v>0.4386617100371747</v>
       </c>
       <c r="H45">
-        <v>0.486</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6529411764705882</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="C46">
-        <v>0.4794411177644711</v>
+        <v>0.4795417348608838</v>
       </c>
       <c r="D46">
-        <v>0.6396396396396397</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="E46">
-        <v>0.4718826405867971</v>
+        <v>0.4763729246487867</v>
       </c>
       <c r="F46">
-        <v>0.6132075471698113</v>
+        <v>0.6126126126126126</v>
       </c>
       <c r="G46">
-        <v>0.4416058394160584</v>
+        <v>0.4476670870113493</v>
       </c>
       <c r="H46">
-        <v>0.476</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6666666666666666</v>
+        <v>0.6586826347305389</v>
       </c>
       <c r="C47">
-        <v>0.4786859601095033</v>
+        <v>0.4844745222929936</v>
       </c>
       <c r="D47">
-        <v>0.5754716981132075</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="E47">
-        <v>0.4719800747198007</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="F47">
-        <v>0.6302521008403361</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="G47">
-        <v>0.4419753086419753</v>
+        <v>0.4490566037735849</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.632768361581921</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="C48">
-        <v>0.4764638346727899</v>
+        <v>0.4879095163806552</v>
       </c>
       <c r="D48">
-        <v>0.6052631578947368</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="E48">
-        <v>0.4796044499381953</v>
+        <v>0.4709677419354839</v>
       </c>
       <c r="F48">
-        <v>0.6141732283464567</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G48">
-        <v>0.4429109159347553</v>
+        <v>0.455919395465995</v>
       </c>
       <c r="H48">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6105263157894737</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="C49">
-        <v>0.4798036995092488</v>
+        <v>0.4846860643185298</v>
       </c>
       <c r="D49">
-        <v>0.6440677966101694</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="E49">
-        <v>0.4766708701134931</v>
+        <v>0.4713375796178344</v>
       </c>
       <c r="F49">
-        <v>0.575</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="G49">
-        <v>0.4516539440203562</v>
+        <v>0.456575682382134</v>
       </c>
       <c r="H49">
-        <v>0.456</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6256410256410256</v>
+        <v>0.7232704402515723</v>
       </c>
       <c r="C50">
-        <v>0.4809417040358744</v>
+        <v>0.4850999622783855</v>
       </c>
       <c r="D50">
-        <v>0.5772357723577236</v>
+        <v>0.632</v>
       </c>
       <c r="E50">
-        <v>0.4734111543450065</v>
+        <v>0.4555984555984556</v>
       </c>
       <c r="F50">
-        <v>0.578125</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="G50">
-        <v>0.4454545454545454</v>
+        <v>0.445997458703939</v>
       </c>
       <c r="H50">
-        <v>0.466</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.649746192893401</v>
+        <v>0.6646341463414634</v>
       </c>
       <c r="C51">
-        <v>0.4801178203240059</v>
+        <v>0.4821099225378089</v>
       </c>
       <c r="D51">
-        <v>0.572463768115942</v>
+        <v>0.5971223021582733</v>
       </c>
       <c r="E51">
-        <v>0.4753246753246753</v>
+        <v>0.4510309278350516</v>
       </c>
       <c r="F51">
-        <v>0.5704225352112676</v>
+        <v>0.625</v>
       </c>
       <c r="G51">
-        <v>0.4408322496749025</v>
+        <v>0.4428754813863928</v>
       </c>
       <c r="H51">
-        <v>0.468</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6292682926829268</v>
+        <v>0.6993865030674846</v>
       </c>
       <c r="C52">
-        <v>0.4788732394366197</v>
+        <v>0.4839883551673945</v>
       </c>
       <c r="D52">
-        <v>0.5845070422535211</v>
+        <v>0.6230769230769231</v>
       </c>
       <c r="E52">
-        <v>0.4759427828348505</v>
+        <v>0.4514435695538058</v>
       </c>
       <c r="F52">
-        <v>0.635036496350365</v>
+        <v>0.6312056737588653</v>
       </c>
       <c r="G52">
-        <v>0.4360313315926893</v>
+        <v>0.4494086727989487</v>
       </c>
       <c r="H52">
-        <v>0.482</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.643979057591623</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="C53">
-        <v>0.4785079928952042</v>
+        <v>0.4830900676397294</v>
       </c>
       <c r="D53">
-        <v>0.59375</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="E53">
-        <v>0.4651162790697674</v>
+        <v>0.4544287548138639</v>
       </c>
       <c r="F53">
-        <v>0.6015037593984962</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="G53">
-        <v>0.4278416347381865</v>
+        <v>0.4506493506493506</v>
       </c>
       <c r="H53">
-        <v>0.482</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6684491978609626</v>
+        <v>0.6647398843930635</v>
       </c>
       <c r="C54">
-        <v>0.4762070163251129</v>
+        <v>0.4810924369747899</v>
       </c>
       <c r="D54">
-        <v>0.6639344262295082</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="E54">
-        <v>0.4636942675159236</v>
+        <v>0.4541984732824427</v>
       </c>
       <c r="F54">
-        <v>0.6692307692307692</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="G54">
-        <v>0.4316730523627075</v>
+        <v>0.4519846350832266</v>
       </c>
       <c r="H54">
-        <v>0.478</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6256983240223464</v>
+        <v>0.6742857142857143</v>
       </c>
       <c r="C55">
-        <v>0.4760601915184678</v>
+        <v>0.4858523119392685</v>
       </c>
       <c r="D55">
-        <v>0.6554621848739496</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="E55">
-        <v>0.4629156010230179</v>
+        <v>0.4600760456273764</v>
       </c>
       <c r="F55">
-        <v>0.6721311475409836</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G55">
-        <v>0.4362934362934363</v>
+        <v>0.4537389100126742</v>
       </c>
       <c r="H55">
-        <v>0.472</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.65</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C56">
-        <v>0.4768611670020121</v>
+        <v>0.4829467939972715</v>
       </c>
       <c r="D56">
-        <v>0.6176470588235294</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="E56">
-        <v>0.4744897959183674</v>
+        <v>0.4641460234680574</v>
       </c>
       <c r="F56">
-        <v>0.6496350364963503</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="G56">
-        <v>0.4427480916030535</v>
+        <v>0.4511568123393316</v>
       </c>
       <c r="H56">
-        <v>0.464</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6857142857142857</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C57">
-        <v>0.4746042216358839</v>
+        <v>0.4827816783684387</v>
       </c>
       <c r="D57">
-        <v>0.6640625</v>
+        <v>0.65</v>
       </c>
       <c r="E57">
-        <v>0.4692307692307692</v>
+        <v>0.4624352331606217</v>
       </c>
       <c r="F57">
-        <v>0.6111111111111112</v>
+        <v>0.5851851851851851</v>
       </c>
       <c r="G57">
-        <v>0.4397435897435897</v>
+        <v>0.4564102564102564</v>
       </c>
       <c r="H57">
-        <v>0.46</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6759776536312849</v>
+        <v>0.6740331491712708</v>
       </c>
       <c r="C58">
-        <v>0.4733420026007802</v>
+        <v>0.483245729303548</v>
       </c>
       <c r="D58">
-        <v>0.640625</v>
+        <v>0.6422764227642277</v>
       </c>
       <c r="E58">
-        <v>0.472258064516129</v>
+        <v>0.4593548387096774</v>
       </c>
       <c r="F58">
-        <v>0.6296296296296297</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="G58">
-        <v>0.4501278772378516</v>
+        <v>0.4578005115089514</v>
       </c>
       <c r="H58">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7151515151515152</v>
+        <v>0.7231638418079096</v>
       </c>
       <c r="C59">
-        <v>0.4745925215723873</v>
+        <v>0.4850939727802981</v>
       </c>
       <c r="D59">
-        <v>0.6102941176470589</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="E59">
-        <v>0.4806701030927835</v>
+        <v>0.4620253164556962</v>
       </c>
       <c r="F59">
-        <v>0.608</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="G59">
-        <v>0.4548872180451128</v>
+        <v>0.4577114427860697</v>
       </c>
       <c r="H59">
-        <v>0.442</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7125748502994012</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C60">
-        <v>0.4746081504702194</v>
+        <v>0.4834605597964376</v>
       </c>
       <c r="D60">
-        <v>0.6136363636363636</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="E60">
-        <v>0.4813863928112965</v>
+        <v>0.4679245283018868</v>
       </c>
       <c r="F60">
-        <v>0.5446428571428571</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="G60">
-        <v>0.4596977329974811</v>
+        <v>0.4519350811485643</v>
       </c>
       <c r="H60">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6923076923076923</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C61">
-        <v>0.4734567901234568</v>
+        <v>0.4821763602251407</v>
       </c>
       <c r="D61">
-        <v>0.6</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="E61">
-        <v>0.4763124199743918</v>
+        <v>0.4639696586599241</v>
       </c>
       <c r="F61">
-        <v>0.5486725663716814</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G61">
-        <v>0.4632627646326277</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="H61">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7017543859649122</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C62">
-        <v>0.4735240413877054</v>
+        <v>0.4826732673267327</v>
       </c>
       <c r="D62">
-        <v>0.576271186440678</v>
+        <v>0.6347826086956522</v>
       </c>
       <c r="E62">
-        <v>0.4755944931163955</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="F62">
         <v>0.5575221238938053</v>
       </c>
       <c r="G62">
-        <v>0.4732919254658385</v>
+        <v>0.449874686716792</v>
       </c>
       <c r="H62">
-        <v>0.432</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6936416184971098</v>
+        <v>0.7845303867403315</v>
       </c>
       <c r="C63">
-        <v>0.4725637181409295</v>
+        <v>0.4840377014290058</v>
       </c>
       <c r="D63">
-        <v>0.6428571428571429</v>
+        <v>0.6058394160583942</v>
       </c>
       <c r="E63">
-        <v>0.479746835443038</v>
+        <v>0.4655819774718398</v>
       </c>
       <c r="F63">
-        <v>0.5409836065573771</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G63">
-        <v>0.4711779448621554</v>
+        <v>0.4470734744707348</v>
       </c>
       <c r="H63">
-        <v>0.43</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6818181818181818</v>
+        <v>0.7650273224043715</v>
       </c>
       <c r="C64">
-        <v>0.4736842105263158</v>
+        <v>0.480884109916368</v>
       </c>
       <c r="D64">
-        <v>0.648</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="E64">
-        <v>0.4673495518565941</v>
+        <v>0.4603580562659846</v>
       </c>
       <c r="F64">
-        <v>0.5655737704918032</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G64">
-        <v>0.4695431472081218</v>
+        <v>0.4437577255871446</v>
       </c>
       <c r="H64">
-        <v>0.436</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7032967032967034</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="C65">
-        <v>0.4739295077191961</v>
+        <v>0.4813070356196644</v>
       </c>
       <c r="D65">
-        <v>0.5895522388059702</v>
+        <v>0.5725806451612904</v>
       </c>
       <c r="E65">
-        <v>0.4770408163265306</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="F65">
-        <v>0.5833333333333334</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="G65">
-        <v>0.4631979695431472</v>
+        <v>0.4449938195302843</v>
       </c>
       <c r="H65">
-        <v>0.446</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7222222222222222</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C66">
-        <v>0.4734118999712561</v>
+        <v>0.4817285382830627</v>
       </c>
       <c r="D66">
-        <v>0.6043165467625899</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E66">
-        <v>0.4833333333333333</v>
+        <v>0.4619289340101523</v>
       </c>
       <c r="F66">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G66">
-        <v>0.4692597239648683</v>
+        <v>0.4418316831683168</v>
       </c>
       <c r="H66">
-        <v>0.446</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6900584795321637</v>
+        <v>0.6871508379888268</v>
       </c>
       <c r="C67">
-        <v>0.471884713195818</v>
+        <v>0.4825414997137951</v>
       </c>
       <c r="D67">
-        <v>0.5703703703703704</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="E67">
-        <v>0.4849673202614379</v>
+        <v>0.4573934837092732</v>
       </c>
       <c r="F67">
-        <v>0.6083333333333333</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="G67">
-        <v>0.4610472541507024</v>
+        <v>0.4532019704433498</v>
       </c>
       <c r="H67">
-        <v>0.456</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6867469879518072</v>
+        <v>0.6847826086956522</v>
       </c>
       <c r="C68">
-        <v>0.4742873113471213</v>
+        <v>0.4854642957945244</v>
       </c>
       <c r="D68">
-        <v>0.6107382550335571</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="E68">
-        <v>0.4856020942408377</v>
+        <v>0.4501891551071879</v>
       </c>
       <c r="F68">
-        <v>0.5555555555555556</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="G68">
-        <v>0.4481434058898848</v>
+        <v>0.4600997506234414</v>
       </c>
       <c r="H68">
-        <v>0.462</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6914285714285714</v>
+        <v>0.6836158192090396</v>
       </c>
       <c r="C69">
-        <v>0.4753782668500688</v>
+        <v>0.4851182197496523</v>
       </c>
       <c r="D69">
-        <v>0.5874125874125874</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="E69">
-        <v>0.4861660079051384</v>
+        <v>0.4556803995006242</v>
       </c>
       <c r="F69">
-        <v>0.552</v>
+        <v>0.632</v>
       </c>
       <c r="G69">
-        <v>0.4540816326530612</v>
+        <v>0.4514925373134329</v>
       </c>
       <c r="H69">
-        <v>0.468</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6918604651162791</v>
+        <v>0.6910112359550562</v>
       </c>
       <c r="C70">
-        <v>0.4752934752934753</v>
+        <v>0.4861681731032594</v>
       </c>
       <c r="D70">
-        <v>0.6060606060606061</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="E70">
-        <v>0.4841269841269841</v>
+        <v>0.4556803995006242</v>
       </c>
       <c r="F70">
-        <v>0.6216216216216216</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G70">
-        <v>0.4581724581724582</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="H70">
-        <v>0.474</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7318435754189944</v>
+        <v>0.6836158192090396</v>
       </c>
       <c r="C71">
-        <v>0.4762416107382551</v>
+        <v>0.4870200108166576</v>
       </c>
       <c r="D71">
-        <v>0.5827338129496403</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="E71">
-        <v>0.4760672703751617</v>
+        <v>0.4548872180451128</v>
       </c>
       <c r="F71">
-        <v>0.6111111111111112</v>
+        <v>0.6982758620689655</v>
       </c>
       <c r="G71">
-        <v>0.4575</v>
+        <v>0.4525</v>
       </c>
       <c r="H71">
-        <v>0.462</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7087912087912088</v>
+        <v>0.6982248520710059</v>
       </c>
       <c r="C72">
-        <v>0.475470697427738</v>
+        <v>0.4869263607257204</v>
       </c>
       <c r="D72">
-        <v>0.5867768595041323</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E72">
-        <v>0.4717223650385604</v>
+        <v>0.4577553593947036</v>
       </c>
       <c r="F72">
-        <v>0.6082474226804123</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="G72">
-        <v>0.4582814445828144</v>
+        <v>0.4558080808080808</v>
       </c>
       <c r="H72">
-        <v>0.46</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7052023121387283</v>
+        <v>0.7134831460674157</v>
       </c>
       <c r="C73">
-        <v>0.4777253668763103</v>
+        <v>0.4881703470031546</v>
       </c>
       <c r="D73">
-        <v>0.576271186440678</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="E73">
-        <v>0.4715549936788875</v>
+        <v>0.4567430025445293</v>
       </c>
       <c r="F73">
-        <v>0.62</v>
+        <v>0.5785123966942148</v>
       </c>
       <c r="G73">
-        <v>0.4615384615384616</v>
+        <v>0.4636942675159236</v>
       </c>
       <c r="H73">
-        <v>0.456</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7142857142857143</v>
+        <v>0.7485029940119761</v>
       </c>
       <c r="C74">
-        <v>0.4780134505949302</v>
+        <v>0.4877922077922078</v>
       </c>
       <c r="D74">
-        <v>0.5289256198347108</v>
+        <v>0.575</v>
       </c>
       <c r="E74">
-        <v>0.4766118836915297</v>
+        <v>0.4567126725219574</v>
       </c>
       <c r="F74">
-        <v>0.6160714285714286</v>
+        <v>0.5371900826446281</v>
       </c>
       <c r="G74">
-        <v>0.4661746617466175</v>
+        <v>0.4771573604060914</v>
       </c>
       <c r="H74">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7134502923976608</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C75">
-        <v>0.47809475292919</v>
+        <v>0.4858829568788501</v>
       </c>
       <c r="D75">
-        <v>0.504</v>
+        <v>0.6017699115044248</v>
       </c>
       <c r="E75">
-        <v>0.4758883248730965</v>
+        <v>0.4552429667519182</v>
       </c>
       <c r="F75">
-        <v>0.55</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="G75">
-        <v>0.4632627646326277</v>
+        <v>0.4750320102432778</v>
       </c>
       <c r="H75">
-        <v>0.462</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7005347593582888</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="C76">
-        <v>0.4775818639798489</v>
+        <v>0.4859458090655862</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0.6090225563909775</v>
       </c>
       <c r="E76">
-        <v>0.4776500638569604</v>
+        <v>0.4484924623115578</v>
       </c>
       <c r="F76">
-        <v>0.5818181818181818</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="G76">
-        <v>0.4621212121212121</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="H76">
-        <v>0.452</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7257142857142858</v>
+        <v>0.6962025316455697</v>
       </c>
       <c r="C77">
-        <v>0.4768195413758724</v>
+        <v>0.4893723430857714</v>
       </c>
       <c r="D77">
-        <v>0.5701754385964912</v>
+        <v>0.6535433070866141</v>
       </c>
       <c r="E77">
-        <v>0.4825</v>
+        <v>0.4503816793893129</v>
       </c>
       <c r="F77">
-        <v>0.5862068965517241</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="G77">
-        <v>0.4508094645080947</v>
+        <v>0.4694894146948941</v>
       </c>
       <c r="H77">
-        <v>0.466</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6810810810810811</v>
+        <v>0.6821192052980133</v>
       </c>
       <c r="C78">
-        <v>0.4772170504654581</v>
+        <v>0.4881831610044313</v>
       </c>
       <c r="D78">
-        <v>0.625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="E78">
-        <v>0.4734895191122072</v>
+        <v>0.442159383033419</v>
       </c>
       <c r="F78">
-        <v>0.6090909090909091</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="G78">
-        <v>0.4519704433497537</v>
+        <v>0.4640198511166253</v>
       </c>
       <c r="H78">
-        <v>0.462</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6818181818181818</v>
+        <v>0.6962025316455697</v>
       </c>
       <c r="C79">
-        <v>0.4793889427740058</v>
+        <v>0.4874665368702847</v>
       </c>
       <c r="D79">
-        <v>0.6228070175438597</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="E79">
-        <v>0.4655172413793103</v>
+        <v>0.4407894736842105</v>
       </c>
       <c r="F79">
-        <v>0.6310679611650486</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="G79">
-        <v>0.4443069306930693</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="H79">
-        <v>0.472</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.718562874251497</v>
+        <v>0.6855345911949685</v>
       </c>
       <c r="C80">
-        <v>0.4798850574712644</v>
+        <v>0.4862650602409638</v>
       </c>
       <c r="D80">
-        <v>0.5546218487394958</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="E80">
-        <v>0.4567430025445293</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="F80">
-        <v>0.6551724137931034</v>
+        <v>0.5163934426229508</v>
       </c>
       <c r="G80">
-        <v>0.44625</v>
+        <v>0.4720101781170484</v>
       </c>
       <c r="H80">
-        <v>0.464</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7048192771084337</v>
+        <v>0.6809815950920245</v>
       </c>
       <c r="C81">
-        <v>0.4787234042553192</v>
+        <v>0.4852591535901093</v>
       </c>
       <c r="D81">
-        <v>0.5348837209302325</v>
+        <v>0.656934306569343</v>
       </c>
       <c r="E81">
-        <v>0.4692307692307692</v>
+        <v>0.4456094364351245</v>
       </c>
       <c r="F81">
-        <v>0.6722689075630253</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="G81">
-        <v>0.4454314720812182</v>
+        <v>0.4703656998738966</v>
       </c>
       <c r="H81">
-        <v>0.468</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6966292134831461</v>
+        <v>0.6688741721854304</v>
       </c>
       <c r="C82">
-        <v>0.4797944405512731</v>
+        <v>0.485559990608124</v>
       </c>
       <c r="D82">
-        <v>0.5267175572519084</v>
+        <v>0.7154471544715447</v>
       </c>
       <c r="E82">
-        <v>0.4717223650385604</v>
+        <v>0.4515306122448979</v>
       </c>
       <c r="F82">
-        <v>0.625</v>
+        <v>0.546875</v>
       </c>
       <c r="G82">
-        <v>0.4506329113924051</v>
+        <v>0.4739517153748412</v>
       </c>
       <c r="H82">
-        <v>0.464</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6722222222222223</v>
+        <v>0.656441717791411</v>
       </c>
       <c r="C83">
-        <v>0.4800925925925926</v>
+        <v>0.4864739884393063</v>
       </c>
       <c r="D83">
-        <v>0.5083333333333333</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="E83">
-        <v>0.4629156010230179</v>
+        <v>0.45625</v>
       </c>
       <c r="F83">
-        <v>0.6115702479338843</v>
+        <v>0.5289256198347108</v>
       </c>
       <c r="G83">
-        <v>0.4553459119496855</v>
+        <v>0.4648241206030151</v>
       </c>
       <c r="H83">
-        <v>0.464</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C84">
-        <v>0.481897341888176</v>
+        <v>0.4856815578465063</v>
       </c>
       <c r="D84">
-        <v>0.5655737704918032</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="E84">
-        <v>0.4599745870393901</v>
+        <v>0.4602774274905422</v>
       </c>
       <c r="F84">
-        <v>0.6695652173913044</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G84">
-        <v>0.4639696586599241</v>
+        <v>0.4629861982434128</v>
       </c>
       <c r="H84">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6684491978609626</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C85">
-        <v>0.4818758495695514</v>
+        <v>0.4858115777525539</v>
       </c>
       <c r="D85">
-        <v>0.512</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="E85">
-        <v>0.4518987341772152</v>
+        <v>0.4636015325670498</v>
       </c>
       <c r="F85">
-        <v>0.6585365853658537</v>
+        <v>0.6116504854368932</v>
       </c>
       <c r="G85">
-        <v>0.4643304130162703</v>
+        <v>0.4625</v>
       </c>
       <c r="H85">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6758241758241759</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="C86">
-        <v>0.4830679524557075</v>
+        <v>0.4857463524130191</v>
       </c>
       <c r="D86">
-        <v>0.5238095238095238</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="E86">
-        <v>0.4474017743979721</v>
+        <v>0.4751592356687898</v>
       </c>
       <c r="F86">
-        <v>0.6036036036036037</v>
+        <v>0.6272727272727273</v>
       </c>
       <c r="G86">
-        <v>0.4705144291091594</v>
+        <v>0.4627791563275434</v>
       </c>
       <c r="H86">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6971428571428572</v>
+        <v>0.6878612716763006</v>
       </c>
       <c r="C87">
-        <v>0.4837137159317527</v>
+        <v>0.4845658449922274</v>
       </c>
       <c r="D87">
-        <v>0.5433070866141733</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E87">
-        <v>0.4394904458598726</v>
+        <v>0.4708926261319534</v>
       </c>
       <c r="F87">
-        <v>0.6238532110091743</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="G87">
-        <v>0.4819427148194271</v>
+        <v>0.4628930817610063</v>
       </c>
       <c r="H87">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6867469879518072</v>
+        <v>0.7125748502994012</v>
       </c>
       <c r="C88">
-        <v>0.4823658269441402</v>
+        <v>0.4839771729587357</v>
       </c>
       <c r="D88">
-        <v>0.5267175572519084</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="E88">
-        <v>0.4313471502590673</v>
+        <v>0.474937343358396</v>
       </c>
       <c r="F88">
-        <v>0.6153846153846154</v>
+        <v>0.5677966101694916</v>
       </c>
       <c r="G88">
-        <v>0.4785353535353535</v>
+        <v>0.46875</v>
       </c>
       <c r="H88">
-        <v>0.46</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7006369426751592</v>
+        <v>0.7028571428571428</v>
       </c>
       <c r="C89">
-        <v>0.4830049794327776</v>
+        <v>0.4838639809400043</v>
       </c>
       <c r="D89">
-        <v>0.572463768115942</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E89">
-        <v>0.4341590612777054</v>
+        <v>0.4711779448621554</v>
       </c>
       <c r="F89">
-        <v>0.603448275862069</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G89">
-        <v>0.4779874213836478</v>
+        <v>0.4721189591078067</v>
       </c>
       <c r="H89">
-        <v>0.47</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7151162790697675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C90">
-        <v>0.4837467921300256</v>
+        <v>0.485180412371134</v>
       </c>
       <c r="D90">
-        <v>0.5753424657534246</v>
+        <v>0.656</v>
       </c>
       <c r="E90">
-        <v>0.4325032765399738</v>
+        <v>0.4731457800511509</v>
       </c>
       <c r="F90">
-        <v>0.6050420168067226</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="G90">
-        <v>0.4746192893401015</v>
+        <v>0.4751861042183623</v>
       </c>
       <c r="H90">
-        <v>0.48</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6927374301675978</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C91">
-        <v>0.4826197541331073</v>
+        <v>0.4851380042462845</v>
       </c>
       <c r="D91">
-        <v>0.5664335664335665</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="E91">
-        <v>0.4315514993481095</v>
+        <v>0.4711168164313222</v>
       </c>
       <c r="F91">
-        <v>0.5793650793650794</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G91">
-        <v>0.4692597239648683</v>
+        <v>0.4788029925187032</v>
       </c>
       <c r="H91">
-        <v>0.48</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6564102564102564</v>
+        <v>0.6946107784431138</v>
       </c>
       <c r="C92">
-        <v>0.4826141600335149</v>
+        <v>0.4858887952822241</v>
       </c>
       <c r="D92">
-        <v>0.625</v>
+        <v>0.68</v>
       </c>
       <c r="E92">
-        <v>0.4258312020460358</v>
+        <v>0.4690721649484536</v>
       </c>
       <c r="F92">
-        <v>0.5862068965517241</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G92">
-        <v>0.4732254047322541</v>
+        <v>0.4790343074968234</v>
       </c>
       <c r="H92">
-        <v>0.47</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6685082872928176</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C93">
-        <v>0.482765780730897</v>
+        <v>0.4855359001040583</v>
       </c>
       <c r="D93">
-        <v>0.6545454545454545</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="E93">
-        <v>0.4197994987468672</v>
+        <v>0.4616368286445013</v>
       </c>
       <c r="F93">
-        <v>0.6272727272727273</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="G93">
-        <v>0.4722564734895191</v>
+        <v>0.476552598225602</v>
       </c>
       <c r="H93">
-        <v>0.478</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6813186813186813</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C94">
-        <v>0.4825533661740558</v>
+        <v>0.4844297793359456</v>
       </c>
       <c r="D94">
-        <v>0.6285714285714286</v>
+        <v>0.5867768595041323</v>
       </c>
       <c r="E94">
-        <v>0.4282147315855181</v>
+        <v>0.4616368286445013</v>
       </c>
       <c r="F94">
-        <v>0.5714285714285714</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="G94">
-        <v>0.4763681592039801</v>
+        <v>0.4752223634053367</v>
       </c>
       <c r="H94">
-        <v>0.466</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6804123711340206</v>
+        <v>0.6510416666666666</v>
       </c>
       <c r="C95">
-        <v>0.4829765545361875</v>
+        <v>0.4834220221039705</v>
       </c>
       <c r="D95">
-        <v>0.6302521008403361</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="E95">
-        <v>0.4387755102040816</v>
+        <v>0.4637865311308768</v>
       </c>
       <c r="F95">
-        <v>0.5546875</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="G95">
-        <v>0.4846153846153846</v>
+        <v>0.4752223634053367</v>
       </c>
       <c r="H95">
-        <v>0.486</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7182320441988951</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="C96">
-        <v>0.4830800405268491</v>
+        <v>0.4854881266490765</v>
       </c>
       <c r="D96">
-        <v>0.5338345864661654</v>
+        <v>0.6875</v>
       </c>
       <c r="E96">
-        <v>0.4457516339869281</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="F96">
-        <v>0.5348837209302325</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="G96">
-        <v>0.4836173001310616</v>
+        <v>0.476010101010101</v>
       </c>
       <c r="H96">
-        <v>0.474</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7261904761904762</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="C97">
-        <v>0.4820287539936102</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="D97">
-        <v>0.5263157894736842</v>
+        <v>0.625</v>
       </c>
       <c r="E97">
-        <v>0.4510309278350516</v>
+        <v>0.4547738693467337</v>
       </c>
       <c r="F97">
-        <v>0.4855072463768116</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="G97">
-        <v>0.4884910485933504</v>
+        <v>0.4815756035578145</v>
       </c>
       <c r="H97">
-        <v>0.466</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7283950617283951</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="C98">
-        <v>0.4824180165942315</v>
+        <v>0.4837939948299861</v>
       </c>
       <c r="D98">
-        <v>0.5740740740740741</v>
+        <v>0.675</v>
       </c>
       <c r="E98">
-        <v>0.4532650448143406</v>
+        <v>0.4625</v>
       </c>
       <c r="F98">
-        <v>0.5496183206106871</v>
+        <v>0.5585585585585585</v>
       </c>
       <c r="G98">
-        <v>0.4839537869062901</v>
+        <v>0.4831880448318804</v>
       </c>
       <c r="H98">
-        <v>0.468</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7305389221556886</v>
+        <v>0.7461928934010152</v>
       </c>
       <c r="C99">
-        <v>0.4828125</v>
+        <v>0.482690794649882</v>
       </c>
       <c r="D99">
-        <v>0.5615384615384615</v>
+        <v>0.6581196581196581</v>
       </c>
       <c r="E99">
-        <v>0.4468085106382979</v>
+        <v>0.4501891551071879</v>
       </c>
       <c r="F99">
-        <v>0.552</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="G99">
-        <v>0.4718670076726343</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="H99">
-        <v>0.476</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6646341463414634</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="C100">
-        <v>0.483291481553023</v>
+        <v>0.4819793493083966</v>
       </c>
       <c r="D100">
-        <v>0.5470085470085471</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="E100">
-        <v>0.450314465408805</v>
+        <v>0.4501891551071879</v>
       </c>
       <c r="F100">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="G100">
-        <v>0.4664179104477612</v>
+        <v>0.4987531172069826</v>
       </c>
       <c r="H100">
-        <v>0.474</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6571428571428571</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C101">
-        <v>0.4856376867100728</v>
+        <v>0.481152136091243</v>
       </c>
       <c r="D101">
-        <v>0.5504587155963303</v>
+        <v>0.55</v>
       </c>
       <c r="E101">
-        <v>0.4584382871536524</v>
+        <v>0.4562737642585551</v>
       </c>
       <c r="F101">
-        <v>0.5360824742268041</v>
+        <v>0.625</v>
       </c>
       <c r="G101">
-        <v>0.4675</v>
+        <v>0.4900990099009901</v>
       </c>
       <c r="H101">
-        <v>0.464</v>
+        <v>0.406</v>
       </c>
     </row>
   </sheetData>
